--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhilth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empspqasadm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <t>Mar'16</t>
   </si>
   <si>
-    <t>YTD
-Q2'16</t>
-  </si>
-  <si>
     <t>Apr'16</t>
   </si>
   <si>
@@ -79,10 +75,6 @@
     <t>June'16</t>
   </si>
   <si>
-    <t>YTD
-Q3'16</t>
-  </si>
-  <si>
     <t>July'16</t>
   </si>
   <si>
@@ -114,6 +106,12 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>YTD Q3'16</t>
+  </si>
+  <si>
+    <t>YTD Q2'16</t>
   </si>
 </sst>
 </file>
@@ -546,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,48 +588,48 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -716,7 +714,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -801,7 +799,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>5</v>
@@ -886,7 +884,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9">
         <v>10</v>
@@ -971,7 +969,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11">
         <f>SUM(B2:B5)</f>
@@ -1075,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,48 +1114,48 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>911</v>
@@ -1242,7 +1240,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <v>71</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>336</v>
@@ -1412,7 +1410,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9">
         <v>996</v>
@@ -1497,7 +1495,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="11">
         <f>SUM(B2:B5)</f>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empspqasadm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWork\Amdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>CC Desc</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>PSG</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
   <si>
     <t>YTD Q3'16</t>
@@ -135,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +155,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,10 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,9 +244,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,18 +526,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
@@ -606,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>16</v>
@@ -627,7 +611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -694,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="T2" s="6">
-        <f t="shared" ref="T2:X6" si="0">R2+S2</f>
+        <f t="shared" ref="T2:X5" si="0">R2+S2</f>
         <v>114</v>
       </c>
       <c r="U2" s="6">
@@ -712,7 +696,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -737,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:J6" si="1">F3+G3</f>
+        <f t="shared" ref="H3:J5" si="1">F3+G3</f>
         <v>2</v>
       </c>
       <c r="I3" s="6">
@@ -758,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:P6" si="2">L3+M3</f>
+        <f t="shared" ref="N3:P5" si="2">L3+M3</f>
         <v>4</v>
       </c>
       <c r="O3" s="6">
@@ -797,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -882,7 +866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -965,103 +949,6 @@
       <c r="X5" s="9">
         <f t="shared" si="0"/>
         <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11">
-        <f>SUM(B2:B5)</f>
-        <v>23</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUM(C2:C5)</f>
-        <v>19</v>
-      </c>
-      <c r="D6" s="11">
-        <f>B6+C6</f>
-        <v>42</v>
-      </c>
-      <c r="E6" s="11">
-        <f>SUM(E2:E5)</f>
-        <v>37</v>
-      </c>
-      <c r="F6" s="11">
-        <f>SUM(D6:E6)</f>
-        <v>79</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" ref="G6:Q6" si="3">SUM(G2:G5)</f>
-        <v>29</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="L6" s="11">
-        <f>J6+K6</f>
-        <v>168</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="R6" s="11">
-        <f>P6+Q6</f>
-        <v>260</v>
-      </c>
-      <c r="S6" s="11">
-        <f>SUM(S2:S5)</f>
-        <v>42</v>
-      </c>
-      <c r="T6" s="11">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="U6" s="11">
-        <f>SUM(U2:U5)</f>
-        <v>26</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="W6" s="11">
-        <f>SUM(W2:W5)</f>
-        <v>30</v>
-      </c>
-      <c r="X6" s="11">
-        <f t="shared" si="0"/>
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1071,15 +958,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
@@ -1132,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>16</v>
@@ -1153,8 +1040,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6">
@@ -1170,76 +1057,76 @@
       <c r="E2" s="6">
         <v>896</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <f>AVERAGE(B2,C2,E2)</f>
         <v>907</v>
       </c>
       <c r="G2" s="6">
         <v>901</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>AVERAGE(B2,C2,E2,G2)</f>
         <v>905.5</v>
       </c>
       <c r="I2" s="6">
         <v>926</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <f>AVERAGE(B2,C2,E2,G2,I2)</f>
         <v>909.6</v>
       </c>
       <c r="K2" s="6">
         <v>943</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <f>IFERROR(AVERAGE(B2,C2,E2,G2,I2,K2),"NA")</f>
         <v>915.16666666666663</v>
       </c>
       <c r="M2" s="6">
         <v>953</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <f>AVERAGE(E2,G2,I2,K2,M2,B2,C2)</f>
         <v>920.57142857142856</v>
       </c>
       <c r="O2" s="6">
         <v>966</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <f>AVERAGE(G2,I2,K2,M2,O2,D2,E2,B2,C2)</f>
         <v>924.72222222222217</v>
       </c>
       <c r="Q2" s="6">
         <v>974</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <f>IFERROR(AVERAGE(G2,I2,K2,M2,O2,Q2,B2,C2,E2),"NA")</f>
         <v>931.55555555555554</v>
       </c>
       <c r="S2" s="6">
         <v>1036</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="11">
         <f>IFERROR(AVERAGE(I2,K2,M2,O2,Q2,S2,C2,E2,G2,B2),"NA")</f>
         <v>942</v>
       </c>
       <c r="U2" s="6">
         <v>1052</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="11">
         <f>IFERROR(AVERAGE(K2,M2,O2,Q2,S2,U2,E2,G2,I2,C2,B2),"NA")</f>
         <v>952</v>
       </c>
       <c r="W2" s="6">
         <v>1071</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="11">
         <f>IFERROR(AVERAGE(M2,O2,Q2,S2,U2,W2,G2,I2,K2,E2,C2,B2),"NA")</f>
         <v>961.91666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="6">
@@ -1255,76 +1142,76 @@
       <c r="E3" s="6">
         <v>72</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <f>AVERAGE(B3,C3,E3)</f>
         <v>71.333333333333329</v>
       </c>
       <c r="G3" s="6">
         <v>74</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <f>AVERAGE(B3,C3,E3,G3)</f>
         <v>72</v>
       </c>
       <c r="I3" s="6">
         <v>73</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <f>AVERAGE(B3,C3,E3,G3,I3)</f>
         <v>72.2</v>
       </c>
       <c r="K3" s="6">
         <v>76</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <f>IFERROR(AVERAGE(B3,C3,E3,G3,I3,K3),"NA")</f>
         <v>72.833333333333329</v>
       </c>
       <c r="M3" s="6">
         <v>74</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <f>AVERAGE(E3,G3,I3,K3,M3,B3,C3)</f>
         <v>73</v>
       </c>
       <c r="O3" s="6">
         <v>76</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <f>AVERAGE(G3,I3,K3,M3,O3,D3,E3,B3,C3)</f>
         <v>73.111111111111114</v>
       </c>
       <c r="Q3" s="6">
         <v>74</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <f>IFERROR(AVERAGE(G3,I3,K3,M3,O3,Q3,B3,C3,E3),"NA")</f>
         <v>73.444444444444443</v>
       </c>
       <c r="S3" s="6">
         <v>77</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="11">
         <f>IFERROR(AVERAGE(I3,K3,M3,O3,Q3,S3,C3,E3,G3,B3),"NA")</f>
         <v>73.8</v>
       </c>
       <c r="U3" s="6">
         <v>81</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="11">
         <f>IFERROR(AVERAGE(K3,M3,O3,Q3,S3,U3,E3,G3,I3,C3,B3),"NA")</f>
         <v>74.454545454545453</v>
       </c>
       <c r="W3" s="6">
         <v>87</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="11">
         <f>IFERROR(AVERAGE(M3,O3,Q3,S3,U3,W3,G3,I3,K3,E3,C3,B3),"NA")</f>
         <v>75.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="7">
@@ -1340,76 +1227,76 @@
       <c r="E4" s="7">
         <v>347</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <f>AVERAGE(B4,C4,E4)</f>
         <v>343</v>
       </c>
       <c r="G4" s="7">
         <v>348</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f>AVERAGE(B4,C4,E4,G4)</f>
         <v>344.25</v>
       </c>
       <c r="I4" s="7">
         <v>352</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <f>AVERAGE(B4,C4,E4,G4,I4)</f>
         <v>345.8</v>
       </c>
       <c r="K4" s="7">
         <v>349</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <f>IFERROR(AVERAGE(B4,C4,E4,G4,I4,K4),"NA")</f>
         <v>346.33333333333331</v>
       </c>
       <c r="M4" s="7">
         <v>353</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <f>AVERAGE(E4,G4,I4,K4,M4,B4,C4)</f>
         <v>347.28571428571428</v>
       </c>
       <c r="O4" s="7">
         <v>356</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="12">
         <f>AVERAGE(G4,I4,K4,M4,O4,D4,E4,B4,C4)</f>
         <v>347.55555555555554</v>
       </c>
       <c r="Q4" s="7">
         <v>370</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="12">
         <f>IFERROR(AVERAGE(G4,I4,K4,M4,O4,Q4,B4,C4,E4),"NA")</f>
         <v>350.77777777777777</v>
       </c>
       <c r="S4" s="7">
         <v>386</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="12">
         <f>IFERROR(AVERAGE(I4,K4,M4,O4,Q4,S4,C4,E4,G4,B4),"NA")</f>
         <v>354.3</v>
       </c>
       <c r="U4" s="7">
         <v>384</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="12">
         <f>IFERROR(AVERAGE(K4,M4,O4,Q4,S4,U4,E4,G4,I4,C4,B4),"NA")</f>
         <v>357</v>
       </c>
       <c r="W4" s="7">
         <v>387</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="12">
         <f>IFERROR(AVERAGE(M4,O4,Q4,S4,U4,W4,G4,I4,K4,E4,C4,B4),"NA")</f>
         <v>359.5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="9">
@@ -1425,169 +1312,72 @@
       <c r="E5" s="9">
         <v>1081</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>AVERAGE(B5,C5,E5)</f>
         <v>1045.6666666666667</v>
       </c>
       <c r="G5" s="9">
         <v>1063</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f>AVERAGE(B5,C5,E5,G5)</f>
         <v>1050</v>
       </c>
       <c r="I5" s="9">
         <v>1055</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f>AVERAGE(B5,C5,E5,G5,I5)</f>
         <v>1051</v>
       </c>
       <c r="K5" s="9">
         <v>1049</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f>IFERROR(AVERAGE(B5,C5,E5,G5,I5,K5),"NA")</f>
         <v>1050.6666666666667</v>
       </c>
       <c r="M5" s="9">
         <v>1037</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="13">
         <f>AVERAGE(E5,G5,I5,K5,M5,B5,C5)</f>
         <v>1048.7142857142858</v>
       </c>
       <c r="O5" s="9">
         <v>1050</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="13">
         <f>AVERAGE(G5,I5,K5,M5,O5,D5,E5,B5,C5)</f>
         <v>1046.5555555555557</v>
       </c>
       <c r="Q5" s="9">
         <v>1063</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="13">
         <f>IFERROR(AVERAGE(G5,I5,K5,M5,O5,Q5,B5,C5,E5),"NA")</f>
         <v>1050.4444444444443</v>
       </c>
       <c r="S5" s="9">
         <v>1110</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="13">
         <f>IFERROR(AVERAGE(I5,K5,M5,O5,Q5,S5,C5,E5,G5,B5),"NA")</f>
         <v>1056.4000000000001</v>
       </c>
       <c r="U5" s="9">
         <v>1114</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="13">
         <f>IFERROR(AVERAGE(K5,M5,O5,Q5,S5,U5,E5,G5,I5,C5,B5),"NA")</f>
         <v>1061.6363636363637</v>
       </c>
       <c r="W5" s="9">
         <v>1120</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="13">
         <f>IFERROR(AVERAGE(M5,O5,Q5,S5,U5,W5,G5,I5,K5,E5,C5,B5),"NA")</f>
         <v>1066.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11">
-        <f>SUM(B2:B5)</f>
-        <v>2314</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUM(C2:C5)</f>
-        <v>2391</v>
-      </c>
-      <c r="D6" s="11">
-        <f>AVERAGE(B6:C6)</f>
-        <v>2352.5</v>
-      </c>
-      <c r="E6" s="11">
-        <f>SUM(E2:E5)</f>
-        <v>2396</v>
-      </c>
-      <c r="F6" s="16">
-        <f>AVERAGE(B6,C6,E6)</f>
-        <v>2367</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" ref="G6:Q6" si="0">SUM(G2:G5)</f>
-        <v>2386</v>
-      </c>
-      <c r="H6" s="16">
-        <f>AVERAGE(B6,C6,E6,G6)</f>
-        <v>2371.75</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>2406</v>
-      </c>
-      <c r="J6" s="16">
-        <f>AVERAGE(B6,C6,E6,G6,I6)</f>
-        <v>2378.6</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="0"/>
-        <v>2417</v>
-      </c>
-      <c r="L6" s="16">
-        <f>IFERROR(AVERAGE(B6,C6,E6,G6,I6,K6),"NA")</f>
-        <v>2385</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="0"/>
-        <v>2417</v>
-      </c>
-      <c r="N6" s="16">
-        <f>AVERAGE(E6,G6,I6,K6,M6,B6,C6)</f>
-        <v>2389.5714285714284</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="0"/>
-        <v>2448</v>
-      </c>
-      <c r="P6" s="16">
-        <f>AVERAGE(G6,I6,K6,M6,O6,D6,E6,B6,C6)</f>
-        <v>2391.9444444444443</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" si="0"/>
-        <v>2481</v>
-      </c>
-      <c r="R6" s="16">
-        <f>IFERROR(AVERAGE(G6,I6,K6,M6,O6,Q6,B6,C6,E6),"NA")</f>
-        <v>2406.2222222222222</v>
-      </c>
-      <c r="S6" s="11">
-        <f>SUM(S2:S5)</f>
-        <v>2609</v>
-      </c>
-      <c r="T6" s="16">
-        <f>IFERROR(AVERAGE(I6,K6,M6,O6,Q6,S6,C6,E6,G6,B6),"NA")</f>
-        <v>2426.5</v>
-      </c>
-      <c r="U6" s="11">
-        <f>SUM(U2:U5)</f>
-        <v>2631</v>
-      </c>
-      <c r="V6" s="16">
-        <f>IFERROR(AVERAGE(K6,M6,O6,Q6,S6,U6,E6,G6,I6,C6,B6),"NA")</f>
-        <v>2445.090909090909</v>
-      </c>
-      <c r="W6" s="11">
-        <f>SUM(W2:W5)</f>
-        <v>2665</v>
-      </c>
-      <c r="X6" s="16">
-        <f>IFERROR(AVERAGE(M6,O6,Q6,S6,U6,W6,G6,I6,K6,E6,C6,B6),"NA")</f>
-        <v>2463.4166666666665</v>
       </c>
     </row>
   </sheetData>
